--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\churc\Church\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E34563-1576-46DD-B497-F8BCAADBCFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB42484-A297-41F1-8D02-6A6C6AAA6A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCEA294A-4ACF-4234-BA0E-D22A7860C650}"/>
   </bookViews>
@@ -1097,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA15BB0-045F-452E-94B0-E87CF353FA42}">
-  <dimension ref="A1:CD30"/>
+  <dimension ref="A1:CD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,6 +3327,14 @@
         <v>1.1216216216216217</v>
       </c>
     </row>
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -3340,12 +3348,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3566,15 +3571,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5760F594-140A-4149-87CB-281F2DB2C0D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17887C4-F280-4802-97C9-20237DE9C8EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3599,10 +3608,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17887C4-F280-4802-97C9-20237DE9C8EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5760F594-140A-4149-87CB-281F2DB2C0D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>